--- a/prix/cecil-fongicide.xlsx
+++ b/prix/cecil-fongicide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0767C923-A106-4CFC-A030-BF314D8B3D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876157A6-185D-472A-B038-9E882831CCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>path</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>25l</t>
+  </si>
+  <si>
+    <t>cecil/tx203.png</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +542,9 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -557,7 +562,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
@@ -575,7 +582,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" s="9" t="s">
         <v>8</v>
       </c>

--- a/prix/cecil-fongicide.xlsx
+++ b/prix/cecil-fongicide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\peinture\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\peintures\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876157A6-185D-472A-B038-9E882831CCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065A83D-BC6C-4D21-833B-BA992C7EAF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="24612" yWindow="120" windowWidth="13236" windowHeight="9708" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
